--- a/Documentation/Expenses.xlsx
+++ b/Documentation/Expenses.xlsx
@@ -12,8 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
-    <sheet name="Manpower" sheetId="1" r:id="rId1"/>
-    <sheet name="Equipments" sheetId="2" r:id="rId2"/>
+    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Project Manager</t>
   </si>
@@ -33,27 +32,9 @@
     <t>Business Analyst</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Tables</t>
-  </si>
-  <si>
-    <t>Chairs</t>
-  </si>
-  <si>
-    <t>Working Space</t>
-  </si>
-  <si>
     <t>Personnel</t>
   </si>
   <si>
-    <t>Mobile Application Developer</t>
-  </si>
-  <si>
     <t>Duration (month)</t>
   </si>
   <si>
@@ -79,6 +60,33 @@
   </si>
   <si>
     <t>Quality Assurance Analyst</t>
+  </si>
+  <si>
+    <t>https://www.onlinejobs.ph/jobseekers/job/27989</t>
+  </si>
+  <si>
+    <t>Mobile Applications Developer (Android)</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Salaries/philippines-quality-assurance-salary-SRCH_IL.0,11_IN204_KO12,29.htm</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Android Studio</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>Firebase</t>
+  </si>
+  <si>
+    <t>SQLite</t>
   </si>
 </sst>
 </file>
@@ -89,7 +97,7 @@
     <numFmt numFmtId="5" formatCode="&quot;₱&quot;#,##0;\-&quot;₱&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +121,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,22 +151,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -459,95 +515,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>81210</v>
+      </c>
+      <c r="C2" s="5">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2*C2</f>
+        <v>1461780</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>25052</v>
+      </c>
+      <c r="C3" s="5">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6">
+        <f>B3*C3</f>
+        <v>450936</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4*C4</f>
+        <v>540000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>71400</v>
+      </c>
+      <c r="C5" s="5">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B5*C5</f>
+        <v>1285200</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>14000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <f>B6*C6</f>
+        <v>252000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <f>SUM(D2:D6)</f>
+        <v>3989916</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>81210</v>
-      </c>
-      <c r="C2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>25052</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>71400</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>14000</v>
-      </c>
-      <c r="C6">
-        <v>18</v>
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -555,51 +688,10 @@
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G4" r:id="rId2"/>
     <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Documentation/Expenses.xlsx
+++ b/Documentation/Expenses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Project Manager</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
     <t>http://www.salaryexplorer.com/salary-survey.php?job=762&amp;jobtype=3&amp;loctype=1&amp;loc=171</t>
   </si>
   <si>
@@ -87,6 +84,33 @@
   </si>
   <si>
     <t>SQLite</t>
+  </si>
+  <si>
+    <t>Working Space</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Laptops (for backup)</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Aircon</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>https://www.dotproperty.com.ph/offices-for-rent</t>
+  </si>
+  <si>
+    <t>Internet Access</t>
   </si>
 </sst>
 </file>
@@ -172,15 +196,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -198,6 +219,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -515,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +553,7 @@
     <col min="2" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -540,158 +566,208 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>81210</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>18</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>B2*C2</f>
         <v>1461780</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>25052</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>18</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>B3*C3</f>
         <v>450936</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6">
         <v>30000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>18</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>B4*C4</f>
         <v>540000</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>71400</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>18</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>B5*C5</f>
         <v>1285200</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>14000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>B6*C6</f>
         <v>252000</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="8">
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="7">
         <f>SUM(D2:D6)</f>
         <v>3989916</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F14" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="10">
+        <v>9000</v>
+      </c>
+      <c r="C15">
         <v>18</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
+      <c r="D15" s="10">
+        <f>B15*C15</f>
+        <v>162000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Documentation/Expenses.xlsx
+++ b/Documentation/Expenses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Project Manager</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Facilities</t>
-  </si>
-  <si>
     <t>Firebase</t>
   </si>
   <si>
@@ -111,15 +108,28 @@
   </si>
   <si>
     <t>Internet Access</t>
+  </si>
+  <si>
+    <t>http://www.investopedia.com/articles/personal-finance/111115/how-you-could-live-philippines-1000-month.asp</t>
+  </si>
+  <si>
+    <t>Electricity, Water</t>
+  </si>
+  <si>
+    <t>http://www.filipiknow.net/ways-to-lower-electric-bill/</t>
+  </si>
+  <si>
+    <t>Facilities/Utilities/Equipments/Furnitures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;₱&quot;#,##0;\-&quot;₱&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;₱&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -196,7 +206,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -541,15 +552,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -567,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,17 +698,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>16</v>
@@ -709,12 +720,12 @@
         <v>6</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="10">
         <v>9000</v>
@@ -726,37 +737,81 @@
         <f>B15*C15</f>
         <v>162000</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>2413</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12">
+        <f>B20*C20</f>
+        <v>43434</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1797.05</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12">
+        <f>B21*C21</f>
+        <v>32346.899999999998</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2568.21</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="12">
+        <f>B22*C22</f>
+        <v>46227.78</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -766,8 +821,12 @@
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F5" r:id="rId3"/>
     <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F21" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="F22" r:id="rId7"/>
+    <hyperlink ref="F20" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Documentation/Expenses.xlsx
+++ b/Documentation/Expenses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Project Manager</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>Facilities/Utilities/Equipments/Furnitures</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>http://us.toshiba.com/</t>
+  </si>
+  <si>
+    <t>https://www.acer.com/ac/en/US/content/home</t>
+  </si>
+  <si>
+    <t>http://weddings.costhelper.com/table-chair-rentals.html</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,11 +246,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -552,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,124 +717,220 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10">
-        <v>9000</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10">
-        <f>B15*C15</f>
-        <v>162000</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <v>9000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <f>B16*C16</f>
+        <v>162000</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <v>60000</v>
+      </c>
+      <c r="C17" s="4">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6">
+        <f>B17*C17</f>
+        <v>1080000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>30000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="4">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6">
+        <f>B19*C19</f>
+        <v>27000</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="12">
-        <v>2413</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20" s="12">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="4">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6">
         <f>B20*C20</f>
-        <v>43434</v>
+        <v>27000</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="12">
-        <v>1797.05</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21" s="12">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2413</v>
+      </c>
+      <c r="C21" s="4">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6">
         <f>B21*C21</f>
-        <v>32346.899999999998</v>
+        <v>43434</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="12">
-        <v>2568.21</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22" s="12">
+        <v>27</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1797.05</v>
+      </c>
+      <c r="C22" s="4">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11">
         <f>B22*C22</f>
-        <v>46227.78</v>
+        <v>32346.899999999998</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2568.21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>18</v>
+      </c>
+      <c r="D23" s="11">
+        <f>B23*C23</f>
+        <v>46227.78</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="13">
+        <f>SUM(D16:D23)</f>
+        <v>1448008.68</v>
       </c>
     </row>
   </sheetData>
@@ -821,12 +939,16 @@
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F5" r:id="rId3"/>
     <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F21" r:id="rId5"/>
-    <hyperlink ref="F15" r:id="rId6"/>
-    <hyperlink ref="F22" r:id="rId7"/>
-    <hyperlink ref="F20" r:id="rId8"/>
+    <hyperlink ref="F22" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F23" r:id="rId7"/>
+    <hyperlink ref="F21" r:id="rId8"/>
+    <hyperlink ref="F18" r:id="rId9"/>
+    <hyperlink ref="F17" r:id="rId10"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Documentation/Expenses.xlsx
+++ b/Documentation/Expenses.xlsx
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,8 +813,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="6">
-        <f>B17*C17</f>
-        <v>1080000</v>
+        <v>60000</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>35</v>
@@ -884,8 +883,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="6">
-        <f>B21*C21</f>
-        <v>43434</v>
+        <v>2413</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>30</v>
@@ -930,7 +928,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="13">
         <f>SUM(D16:D23)</f>
-        <v>1448008.68</v>
+        <v>386987.68000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Expenses.xlsx
+++ b/Documentation/Expenses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Project Manager</t>
   </si>
@@ -47,27 +47,12 @@
     <t>Total</t>
   </si>
   <si>
-    <t>http://www.salaryexplorer.com/salary-survey.php?job=762&amp;jobtype=3&amp;loctype=1&amp;loc=171</t>
-  </si>
-  <si>
-    <t>http://www.salaryexplorer.com/salary-survey.php?loc=171&amp;loctype=1&amp;job=131&amp;jobtype=3</t>
-  </si>
-  <si>
-    <t>http://www.salaryexplorer.com/salary-survey.php?job=812&amp;jobtype=3&amp;loctype=1&amp;loc=171</t>
-  </si>
-  <si>
     <t>Quality Assurance Analyst</t>
   </si>
   <si>
-    <t>https://www.onlinejobs.ph/jobseekers/job/27989</t>
-  </si>
-  <si>
     <t>Mobile Applications Developer (Android)</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Salaries/philippines-quality-assurance-salary-SRCH_IL.0,11_IN204_KO12,29.htm</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -86,18 +71,12 @@
     <t>Working Space</t>
   </si>
   <si>
-    <t>Tables</t>
-  </si>
-  <si>
     <t>Computers</t>
   </si>
   <si>
     <t>Laptops (for backup)</t>
   </si>
   <si>
-    <t>Chairs</t>
-  </si>
-  <si>
     <t>Aircon</t>
   </si>
   <si>
@@ -134,15 +113,46 @@
     <t>https://www.acer.com/ac/en/US/content/home</t>
   </si>
   <si>
-    <t>http://weddings.costhelper.com/table-chair-rentals.html</t>
+    <t>https://www.payscale.com/research/PH/Job=Mobile_Application_Developer/Salary</t>
+  </si>
+  <si>
+    <t>http://www.payscale.com/research/PH/Job=Business_Analyst%2c_IT/Salary</t>
+  </si>
+  <si>
+    <t>http://www.payscale.com/research/PH/Job=Database_Administrator_(DBA)/Salary</t>
+  </si>
+  <si>
+    <t>https://www.payscale.com/research/PH/Job=Quality_Assurance_Analyst/Salary</t>
+  </si>
+  <si>
+    <t>http://www.payscale.com/research/PH/Job=Project_Manager%2c_Information_Technology_(IT)/Salary</t>
+  </si>
+  <si>
+    <t>Contingency Cost</t>
+  </si>
+  <si>
+    <t>Overall Total</t>
+  </si>
+  <si>
+    <t>http://www.lazada.com.ph/1836-typing-table-wengegrey-1753721.html</t>
+  </si>
+  <si>
+    <t>Tables (4)</t>
+  </si>
+  <si>
+    <t>Chairs (4)</t>
+  </si>
+  <si>
+    <t>http://www.lazada.com.ph/arm-chair-cover-three-sizes-office-computer-chair-cover-side-zipperdesign-recouvre-chaise-stretch-rotating-lift-chair-intl-11230393.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="5" formatCode="&quot;₱&quot;#,##0;\-&quot;₱&quot;#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;₱&quot;#,##0.00;\-&quot;₱&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;₱&quot;#,##0.00"/>
   </numFmts>
@@ -221,26 +231,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +257,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,268 +608,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>25</v>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>81210</v>
-      </c>
-      <c r="C2" s="4">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="15">
+        <v>36667</v>
+      </c>
+      <c r="C2" s="16">
+        <v>18</v>
+      </c>
+      <c r="D2" s="15">
         <f>B2*C2</f>
-        <v>1461780</v>
+        <v>660006</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>18841</v>
+      </c>
+      <c r="C3" s="16">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15">
+        <f>B3*C3</f>
+        <v>113046</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17">
+        <v>26667</v>
+      </c>
+      <c r="C4" s="16">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17">
+        <f>B4*C4</f>
+        <v>480006</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15">
+        <v>15501</v>
+      </c>
+      <c r="C5" s="16">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15">
+        <f>B5*C5</f>
+        <v>139509</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>25052</v>
-      </c>
-      <c r="C3" s="4">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5">
-        <f>B3*C3</f>
-        <v>450936</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6">
-        <v>30000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6">
-        <f>B4*C4</f>
-        <v>540000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>71400</v>
-      </c>
-      <c r="C5" s="4">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5">
-        <f>B5*C5</f>
-        <v>1285200</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
-        <v>14000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="17">
+        <v>12112</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17">
         <f>B6*C6</f>
-        <v>252000</v>
+        <v>36336</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="18">
         <f>SUM(D2:D6)</f>
-        <v>3989916</v>
+        <v>1428903</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="12" t="s">
-        <v>33</v>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>25</v>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
         <v>9000</v>
       </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="3">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
         <f>B16*C16</f>
         <v>162000</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
         <v>60000</v>
       </c>
-      <c r="C17" s="4">
-        <v>18</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="3">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4">
         <v>60000</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
         <v>30000</v>
       </c>
-      <c r="C18" s="4">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="3">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
         <v>30000</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C19" s="4">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6">
-        <f>B19*C19</f>
-        <v>27000</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2185</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <f>B19*4</f>
+        <v>8740</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>36</v>
@@ -856,79 +880,97 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C20" s="4">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6">
-        <f>B20*C20</f>
-        <v>27000</v>
+        <v>38</v>
+      </c>
+      <c r="B20" s="4">
+        <v>980</v>
+      </c>
+      <c r="C20" s="3">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4">
+        <f>B20*4</f>
+        <v>3920</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
         <v>2413</v>
       </c>
-      <c r="C21" s="4">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="3">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
         <v>2413</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
         <v>1797.05</v>
       </c>
-      <c r="C22" s="4">
-        <v>18</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="3">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8">
         <f>B22*C22</f>
         <v>32346.899999999998</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
         <v>2568.21</v>
       </c>
-      <c r="C23" s="4">
-        <v>18</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="3">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8">
         <f>B23*C23</f>
         <v>46227.78</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <f>SUM(D16:D23)</f>
-        <v>386987.68000000005</v>
+        <v>345647.68000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="11">
+        <f>(D7+D24)*0.03</f>
+        <v>53236.520400000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="11">
+        <f>D7+D24</f>
+        <v>1774550.6800000002</v>
       </c>
     </row>
   </sheetData>
@@ -945,8 +987,9 @@
     <hyperlink ref="F17" r:id="rId10"/>
     <hyperlink ref="F19" r:id="rId11"/>
     <hyperlink ref="F20" r:id="rId12"/>
+    <hyperlink ref="F4" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Documentation/Expenses.xlsx
+++ b/Documentation/Expenses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Project Manager</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>http://www.lazada.com.ph/arm-chair-cover-three-sizes-office-computer-chair-cover-side-zipperdesign-recouvre-chaise-stretch-rotating-lift-chair-intl-11230393.html</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Advertisement</t>
   </si>
 </sst>
 </file>
@@ -231,7 +240,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +287,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,20 +969,70 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4">
+        <f>B27*C27</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="19">
+        <v>20000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4">
+        <f>B28*C28</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="18">
+        <f>SUM(D27:D28)</f>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B31" s="11">
         <f>(D7+D24)*0.03</f>
         <v>53236.520400000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="11">
-        <f>D7+D24</f>
-        <v>1774550.6800000002</v>
+      <c r="B32" s="11">
+        <f>D7+D24+D29+B31</f>
+        <v>2367787.2004</v>
       </c>
     </row>
   </sheetData>
